--- a/vignettes/fig_exluded/pdat_exl_prod.xlsx
+++ b/vignettes/fig_exluded/pdat_exl_prod.xlsx
@@ -8320,8 +8320,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="ed7b0db1be0c04ce20b787c6777b9e1d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aaa347ddc4e112863a05b93d941e12cf" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="f5646ceb200daae7218f17100941a68c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33bd753129a1708488b63108d2e37b5d" ns2:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -8333,6 +8333,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8363,6 +8365,16 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -8481,7 +8493,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDE87A21-8277-4ACE-8311-84EE011DE867}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DA164A7-C79C-4E5C-B3DF-4FD52A8DB1BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
